--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_13.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/training/training_13.xlsx
@@ -76,7 +76,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">This enemy caster can deal heavy AoE damage. If we aren’t careful, he can crush our defenses in a heartbeat.
+    <t xml:space="preserve">This enemy caster can deal heavy AoE damage. If we aren't careful, he can crush our defenses in a heartbeat.
 </t>
   </si>
   <si>
@@ -96,7 +96,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">O-okay…
+    <t xml:space="preserve">O-okay...
 </t>
   </si>
   <si>
